--- a/public/plugin/xls/skkm.xlsx
+++ b/public/plugin/xls/skkm.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa\public\plugin\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps-desa-dukuh\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E98860E-8060-4296-B24A-3A6E475CBA5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876E06DD-C7C2-4938-9159-A1A27A435998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$35</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -66,21 +66,9 @@
     <t>Jenis Kelamin</t>
   </si>
   <si>
-    <t xml:space="preserve">Cimanggu I,  </t>
-  </si>
-  <si>
-    <t>DESA CIMANGGU I</t>
-  </si>
-  <si>
-    <t>Jl. Gardu Seri Ciaruteun Rt.004 Rw.008 Desa Cimanggu Satu Kecamatan Cibungbulang 16630 Bogor</t>
-  </si>
-  <si>
     <t>SURAT KETERANGAN KELUARGA MISKIN</t>
   </si>
   <si>
-    <t xml:space="preserve">            Yang bertanda tangan dibawah ini Kepala Desa Cimanggu Satu Kecamatan Cibungbulang Kabupaten Bogor menerangkan dengan sebenarnya bahwa :</t>
-  </si>
-  <si>
     <t>Nama tersebut diatas adalah benar warga kami dan menurut catatan dalam Buku Induk kami nama tersebut diatas berasal dari :</t>
   </si>
   <si>
@@ -91,6 +79,18 @@
   </si>
   <si>
     <t xml:space="preserve">         Demikian Surat Keterangan ini dibuat dengan sebenarnya agar maklum adanya.</t>
+  </si>
+  <si>
+    <t>DESA DUKUH</t>
+  </si>
+  <si>
+    <t>Jl Raya Galuga - Cijujung Km.2 Kec Cibungbulang Kab. Bogor Pos 16330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dukuh, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Yang bertanda tangan dibawah ini Kepala Desa Dukuh Kecamatan Cibungbulang Kabupaten Bogor menerangkan dengan sebenarnya bahwa :</t>
   </si>
 </sst>
 </file>
@@ -118,13 +118,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="14"/>
       <name val="Arial"/>
@@ -133,6 +126,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -168,44 +167,44 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -283,9 +282,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -323,7 +322,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -429,7 +428,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -571,7 +570,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -581,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C28E0B9-CBCF-4415-8AE6-496673EECDF9}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:I17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -591,7 +590,7 @@
     <col min="2" max="2" width="1.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" style="2" customWidth="1"/>
     <col min="4" max="5" width="1.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="3.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" style="2" customWidth="1"/>
@@ -599,93 +598,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="C3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="A7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H9" s="9"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H10" s="9"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
@@ -695,10 +693,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
@@ -708,10 +706,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -721,10 +719,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
@@ -734,10 +732,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
@@ -747,10 +745,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
@@ -760,10 +758,10 @@
         <v>7</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
@@ -773,10 +771,10 @@
         <v>7</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
@@ -786,137 +784,129 @@
         <v>7</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="22" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-    </row>
+      <c r="B22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="2:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="7:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:I8"/>
+  <mergeCells count="29">
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.62992125984251968" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
